--- a/magazzino.xlsx
+++ b/magazzino.xlsx
@@ -5,7 +5,6 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
   <si>
     <t>AR1</t>
   </si>
@@ -118,6 +117,27 @@
   </si>
   <si>
     <t>size123</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>DataSource</t>
+  </si>
+  <si>
+    <t>ShelfName</t>
+  </si>
+  <si>
+    <t>Box Row</t>
+  </si>
+  <si>
+    <t>Box Col</t>
+  </si>
+  <si>
+    <t>RangeStart</t>
+  </si>
+  <si>
+    <t>RangeEnd</t>
   </si>
 </sst>
 </file>
@@ -502,9 +522,8 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -683,269 +702,339 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F16" t="s">
         <v>30</v>
       </c>
     </row>
